--- a/Segimiento de riesgo/Seguimientos de riesgos_Semana_2.xlsx
+++ b/Segimiento de riesgo/Seguimientos de riesgos_Semana_2.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\saul\Documents\Control_De_Acceso_de_Microcontroladores\Segimiento de riesgo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jesús\Documents\GitHub\Punto-de-Acceso\Segimiento de riesgo\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -866,6 +866,7 @@
     <xf numFmtId="0" fontId="20" fillId="11" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -891,7 +892,6 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1207,8 +1207,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C23" workbookViewId="0">
-      <selection activeCell="I30" sqref="I30"/>
+    <sheetView tabSelected="1" topLeftCell="B14" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.25" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1245,26 +1245,26 @@
       <c r="H2" s="1"/>
     </row>
     <row r="3" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="52" t="s">
+      <c r="A3" s="53" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="53"/>
-      <c r="C3" s="53"/>
-      <c r="D3" s="53"/>
-      <c r="E3" s="53"/>
-      <c r="F3" s="53"/>
-      <c r="G3" s="53"/>
-      <c r="H3" s="53"/>
+      <c r="B3" s="54"/>
+      <c r="C3" s="54"/>
+      <c r="D3" s="54"/>
+      <c r="E3" s="54"/>
+      <c r="F3" s="54"/>
+      <c r="G3" s="54"/>
+      <c r="H3" s="54"/>
     </row>
     <row r="4" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="53"/>
-      <c r="B4" s="53"/>
-      <c r="C4" s="53"/>
-      <c r="D4" s="53"/>
-      <c r="E4" s="53"/>
-      <c r="F4" s="53"/>
-      <c r="G4" s="53"/>
-      <c r="H4" s="53"/>
+      <c r="A4" s="54"/>
+      <c r="B4" s="54"/>
+      <c r="C4" s="54"/>
+      <c r="D4" s="54"/>
+      <c r="E4" s="54"/>
+      <c r="F4" s="54"/>
+      <c r="G4" s="54"/>
+      <c r="H4" s="54"/>
     </row>
     <row r="5" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
@@ -1294,16 +1294,16 @@
       <c r="G7" s="2"/>
     </row>
     <row r="8" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="49" t="s">
+      <c r="A8" s="50" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="50"/>
-      <c r="C8" s="50"/>
-      <c r="D8" s="50"/>
-      <c r="E8" s="50"/>
-      <c r="F8" s="50"/>
-      <c r="G8" s="50"/>
-      <c r="H8" s="51"/>
+      <c r="B8" s="51"/>
+      <c r="C8" s="51"/>
+      <c r="D8" s="51"/>
+      <c r="E8" s="51"/>
+      <c r="F8" s="51"/>
+      <c r="G8" s="51"/>
+      <c r="H8" s="52"/>
       <c r="I8" s="3"/>
       <c r="J8" s="3"/>
       <c r="K8" s="3"/>
@@ -1335,10 +1335,10 @@
       <c r="K10" s="3"/>
     </row>
     <row r="11" spans="1:11" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="54" t="s">
+      <c r="A11" s="55" t="s">
         <v>2</v>
       </c>
-      <c r="B11" s="55"/>
+      <c r="B11" s="56"/>
       <c r="C11" s="4" t="s">
         <v>3</v>
       </c>
@@ -1360,10 +1360,10 @@
       <c r="K11" s="3"/>
     </row>
     <row r="12" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="56" t="s">
+      <c r="A12" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="57"/>
+      <c r="B12" s="58"/>
       <c r="C12" s="9">
         <v>0</v>
       </c>
@@ -1387,10 +1387,10 @@
       <c r="K12" s="3"/>
     </row>
     <row r="13" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="56" t="s">
+      <c r="A13" s="57" t="s">
         <v>9</v>
       </c>
-      <c r="B13" s="57"/>
+      <c r="B13" s="58"/>
       <c r="C13" s="9">
         <v>0</v>
       </c>
@@ -1414,10 +1414,10 @@
       <c r="K13" s="3"/>
     </row>
     <row r="14" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="56" t="s">
+      <c r="A14" s="57" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="57"/>
+      <c r="B14" s="58"/>
       <c r="C14" s="9">
         <v>0</v>
       </c>
@@ -1441,10 +1441,10 @@
       <c r="K14" s="3"/>
     </row>
     <row r="15" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="58" t="s">
+      <c r="A15" s="59" t="s">
         <v>11</v>
       </c>
-      <c r="B15" s="59"/>
+      <c r="B15" s="60"/>
       <c r="C15" s="9">
         <v>10</v>
       </c>
@@ -1468,10 +1468,10 @@
       <c r="K15" s="3"/>
     </row>
     <row r="16" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="47" t="s">
+      <c r="A16" s="48" t="s">
         <v>6</v>
       </c>
-      <c r="B16" s="48"/>
+      <c r="B16" s="49"/>
       <c r="C16" s="15">
         <f t="shared" ref="C16:F16" si="1">SUM(C12:C15)</f>
         <v>10</v>
@@ -1584,7 +1584,7 @@
         <v>24</v>
       </c>
       <c r="C21" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D21" s="23" t="s">
         <v>25</v>
@@ -1592,7 +1592,9 @@
       <c r="E21" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="F21" s="25"/>
+      <c r="F21" s="25">
+        <v>43549</v>
+      </c>
       <c r="G21" s="28" t="s">
         <v>26</v>
       </c>
@@ -1809,7 +1811,7 @@
         <v>4</v>
       </c>
       <c r="F29" s="25">
-        <v>43556</v>
+        <v>43549</v>
       </c>
       <c r="G29" s="25" t="s">
         <v>53</v>
@@ -1817,7 +1819,7 @@
       <c r="H29" s="32" t="s">
         <v>53</v>
       </c>
-      <c r="I29" s="60">
+      <c r="I29" s="47">
         <v>43557</v>
       </c>
       <c r="J29" s="3"/>
@@ -1867,7 +1869,7 @@
         <v>4</v>
       </c>
       <c r="F31" s="25">
-        <v>43556</v>
+        <v>43549</v>
       </c>
       <c r="G31" s="25" t="s">
         <v>58</v>
@@ -1875,7 +1877,7 @@
       <c r="H31" s="32" t="s">
         <v>59</v>
       </c>
-      <c r="I31" s="60">
+      <c r="I31" s="47">
         <v>43557</v>
       </c>
       <c r="J31" s="3"/>
